--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hamid Hassan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>01/09/2009</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/08/2011</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>30/11/2014</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1536,7 +1589,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1544,7 +1596,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1748,7 +1799,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1852,7 +1903,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1955,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1956,7 +2007,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2047,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -2004,7 +2054,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2096,7 +2146,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -2104,7 +2153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2156,7 +2205,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2208,7 +2257,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2260,7 +2309,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2312,7 +2361,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2364,7 +2413,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2403,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2425,7 +2474,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2462,7 +2511,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2499,7 +2548,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2536,7 +2585,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2573,7 +2622,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2610,7 +2659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2647,7 +2696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2684,7 +2733,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2721,7 +2770,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2758,7 +2807,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2795,7 +2844,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2832,7 +2881,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2869,7 +2918,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2906,7 +2955,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2943,7 +2992,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2980,7 +3029,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3017,7 +3066,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3054,7 +3103,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3091,7 +3140,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3128,7 +3177,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3165,7 +3214,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3202,7 +3251,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3239,7 +3288,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3276,7 +3325,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3313,7 +3362,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3350,7 +3399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3387,7 +3436,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3424,7 +3473,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3461,7 +3510,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3498,7 +3547,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3535,7 +3584,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3572,7 +3621,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3609,7 +3658,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3646,7 +3695,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3683,7 +3732,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3720,7 +3769,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3757,7 +3806,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3794,7 +3843,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3822,6 +3871,523 @@
           <t>0/13</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3932,9 +3933,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3947,10 +3945,6 @@
           <t>3707</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3993,10 +3987,6 @@
           <t>3721</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4022,7 +4012,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4035,10 +4024,6 @@
           <t>3730</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4064,7 +4049,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4090,7 +4074,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4163,10 +4146,6 @@
           <t>3778</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4192,7 +4171,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4205,10 +4183,6 @@
           <t>3912</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4221,15 +4195,389 @@
           <t>3916</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4237,27 +4585,14 @@
           <t>4290</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>11</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -4267,29 +4602,12 @@
           <t>4306</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.95%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4297,27 +4615,14 @@
           <t>4309</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>11</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.07%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4327,25 +4632,12 @@
           <t>4315</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4353,29 +4645,12 @@
           <t>4323</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4383,11 +4658,12 @@
           <t>4340</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -662,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>01/09/2009</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -860,6 +860,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -959,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1006,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1157,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/08/2011</t>
@@ -1256,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1303,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1397,6 +1404,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -1444,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -1491,6 +1500,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>30/11/2014</t>
@@ -1590,6 +1600,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1689,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -2048,6 +2060,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -2147,6 +2160,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3876,796 +3890,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3623</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3707</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3711</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3721</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3722</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3730</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3754</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3759</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3764</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>7.11%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3773</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.93%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3778</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3912</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4306</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.95%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.07%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.44%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3561</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3623</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3707</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3711</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3721</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3722</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3730</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3754</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3759</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3764</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3773</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3778</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3916</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4306</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3672.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +662,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>01/09/2009</t>
@@ -708,7 +709,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>01/07/2010</t>
@@ -860,7 +860,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/07/2010</t>
@@ -960,7 +959,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>10/07/2010</t>
@@ -1008,7 +1006,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1160,7 +1157,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/08/2011</t>
@@ -1260,7 +1256,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>06/03/2013</t>
@@ -1308,7 +1303,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>08/03/2013</t>
@@ -1356,7 +1350,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>02/10/2013</t>
@@ -1404,7 +1397,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/10/2013</t>
@@ -1452,7 +1444,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/03/2014</t>
@@ -1500,7 +1491,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>30/11/2014</t>
@@ -1600,7 +1590,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>08/01/2015</t>
@@ -1700,7 +1689,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -2060,7 +2048,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>04/07/2016</t>
@@ -2160,7 +2147,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -3890,4 +3876,1311 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>11</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>